--- a/config/xlsx/target_select.xlsx
+++ b/config/xlsx/target_select.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +19,12 @@
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -39,7 +33,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -54,13 +47,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -69,7 +61,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -83,71 +74,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>targetNum</t>
+  </si>
+  <si>
+    <t>allNum</t>
+  </si>
+  <si>
+    <t>priorType</t>
+  </si>
+  <si>
+    <t>isContFriend</t>
+  </si>
+  <si>
+    <t>isContEnemy</t>
+  </si>
+  <si>
+    <t>isContDead</t>
+  </si>
+  <si>
+    <t>isContAlive</t>
+  </si>
+  <si>
+    <t>isReverse</t>
   </si>
   <si>
     <t>str</t>
   </si>
   <si>
-    <t>targetNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>allNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isContEnemy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isContDead</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isContAlive</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>priorType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isContFriend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isReverse</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,34 +144,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,36 +304,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -257,9 +542,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -276,9 +803,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -288,24 +821,62 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -563,96 +1134,96 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="3" width="9.375" style="3"/>
     <col min="4" max="4" width="32.125" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -675,11 +1246,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" s="2" customFormat="1" spans="1:8">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/target_select.xlsx
+++ b/config/xlsx/target_select.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="9640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,34 +47,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yang Liu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-选中敌方单位</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +81,9 @@
     <t>isReverse</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>str</t>
   </si>
   <si>
@@ -110,6 +91,15 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>选中单位</t>
+  </si>
+  <si>
+    <t>最近的敌方目标</t>
+  </si>
+  <si>
+    <t>我方血量最少的单位</t>
   </si>
 </sst>
 </file>
@@ -117,12 +107,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,13 +134,97 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -158,8 +232,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,130 +277,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,7 +317,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,175 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,8 +499,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,23 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,28 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,152 +598,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,13 +756,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1140,13 +1087,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="3" width="9.375" style="3"/>
     <col min="4" max="4" width="32.125" style="3" customWidth="1"/>
@@ -1166,64 +1113,66 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
+    <row r="3" s="2" customFormat="1" spans="1:11">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1245,8 +1194,11 @@
       <c r="I3" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
+    <row r="4" s="2" customFormat="1" spans="1:11">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1257,13 +1209,42 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>1</v>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/target_select.xlsx
+++ b/config/xlsx/target_select.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9640"/>
+    <workbookView windowWidth="25460" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -141,6 +141,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -148,11 +156,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,45 +172,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,64 +195,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -317,13 +317,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +419,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,121 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,44 +507,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +544,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -598,88 +598,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,55 +691,55 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="4"/>
@@ -1185,7 +1185,13 @@
       <c r="D3" s="2">
         <v>5</v>
       </c>
+      <c r="E3" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="b">

--- a/config/xlsx/target_select.xlsx
+++ b/config/xlsx/target_select.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706297FC-A52D-4F90-B470-CB419E7B518D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF325C1-CA23-4C67-AD69-197DF849A3F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>Yang Liu</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{07FB6910-D497-4FF3-AB9F-4212C7F44AD4}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{07FB6910-D497-4FF3-AB9F-4212C7F44AD4}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -115,9 +115,6 @@
     <t>isReverse</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>str</t>
   </si>
   <si>
@@ -258,6 +255,10 @@
   </si>
   <si>
     <t>敌方最远的两个活着的单位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>~备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +325,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,12 +347,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,9 +406,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,107 +683,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9.375" style="3"/>
-    <col min="4" max="4" width="32.125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.375" style="3"/>
+    <col min="1" max="1" width="9.375" style="3"/>
+    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.375" style="3"/>
+    <col min="5" max="5" width="32.125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="F3" s="2" t="b">
         <v>1</v>
       </c>
@@ -801,200 +793,172 @@
       <c r="H3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <f>A3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J36" si="0">A4</f>
-        <v>2</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
+      <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>20</v>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>20</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>20</v>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>20</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="b">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>20</v>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>20</v>
       </c>
       <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>20</v>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>20</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="b">
         <v>1</v>
@@ -1002,167 +966,143 @@
       <c r="G10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
       </c>
       <c r="G12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
       </c>
       <c r="F15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
       </c>
       <c r="F16" s="3" t="b">
         <v>1</v>
@@ -1173,29 +1113,25 @@
       <c r="H16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
       </c>
       <c r="F17" s="3" t="b">
         <v>1</v>
@@ -1203,47 +1139,39 @@
       <c r="G17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1251,7 +1179,7 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="3" t="b">
+      <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="3" t="b">
@@ -1263,134 +1191,114 @@
       <c r="I19" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J20" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
         <v>6</v>
       </c>
-      <c r="E21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="b">
+      <c r="F22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J22" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1398,10 +1306,10 @@
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="b">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="3" t="b">
@@ -1410,20 +1318,16 @@
       <c r="I24" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J24" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
-        <v>1</v>
+      <c r="B25" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1431,125 +1335,109 @@
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="b">
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I25" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J25" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="3">
-        <v>20</v>
-      </c>
       <c r="D26" s="3">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
       </c>
       <c r="F26" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
-        <v>2</v>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="b">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J27" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I27" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>2</v>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
-        <v>2</v>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4</v>
       </c>
       <c r="G29" s="3" t="b">
         <v>1</v>
@@ -1557,107 +1445,91 @@
       <c r="H29" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I29" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
-        <v>2</v>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D30" s="3">
-        <v>4</v>
-      </c>
-      <c r="F30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3" t="b">
+      <c r="F31" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J31" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J31" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
-        <v>2</v>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="b">
+      <c r="F32" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H32" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I32" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
-        <v>2</v>
+      <c r="B33" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -1665,35 +1537,31 @@
       <c r="D33" s="3">
         <v>2</v>
       </c>
-      <c r="F33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
       </c>
       <c r="G34" s="3" t="b">
         <v>1</v>
@@ -1701,20 +1569,16 @@
       <c r="H34" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J34" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I34" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
-        <v>2</v>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
@@ -1722,8 +1586,8 @@
       <c r="D35" s="3">
         <v>2</v>
       </c>
-      <c r="F35" s="3" t="b">
-        <v>1</v>
+      <c r="E35" s="3">
+        <v>2</v>
       </c>
       <c r="G35" s="3" t="b">
         <v>1</v>
@@ -1734,20 +1598,16 @@
       <c r="I35" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J35" s="2">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J35" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
-        <v>2</v>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -1755,21 +1615,17 @@
       <c r="D36" s="3">
         <v>2</v>
       </c>
-      <c r="F36" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3" t="b">
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I36" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="2">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>46</v>
+      <c r="J36" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/target_select.xlsx
+++ b/config/xlsx/target_select.xlsx
@@ -1,64 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF325C1-CA23-4C67-AD69-197DF849A3F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25460" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
+    <author>yang</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{07FB6910-D497-4FF3-AB9F-4212C7F44AD4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yang Liu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-首先在满足后面条件中使用pri排序挑出前N个，然后在前N个里拿targetNum个；allN &gt; targetN时存在随机</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -67,7 +35,28 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+首先在满足后面条件中使用pri排序挑出前N个，然后在前N个里拿targetNum个；allN &gt; targetN时存在随机</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,16 +70,41 @@
         </r>
       </text>
     </comment>
+    <comment ref="A3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="0"/>
+          </rPr>
+          <t>yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+不起实际作用，仅作为判定</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>~备注</t>
+  </si>
+  <si>
     <t>targetNum</t>
   </si>
   <si>
@@ -127,146 +141,116 @@
     <t>选中单位</t>
   </si>
   <si>
+    <t>最近的敌方活着的单位</t>
+  </si>
+  <si>
     <t>我方血量最少的单位</t>
   </si>
   <si>
+    <t>全体敌方活着的单位</t>
+  </si>
+  <si>
     <t>我方全体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体敌方活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>我方全体活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全场活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机一个死亡单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机一个我方死亡单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机一个敌方死亡单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机一个我方活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随即一个敌方活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机一个活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机一个单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随即一个死亡的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方血量最少的活着的单位</t>
+  </si>
+  <si>
+    <t>敌方最大血量最多的单位</t>
+  </si>
+  <si>
+    <t>敌方最远的活着的单位</t>
   </si>
   <si>
     <t>自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方最大血量最多的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>我方血量最多的活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方最远的活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方血量最少的活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>我方血量最少的生存的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近的敌方活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>我方最大血量最多的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌方最大血量最多的活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全场随机活着的三个单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机2个我方单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机2个我方的活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机2个敌方单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机2个敌方活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>我方攻击最高的活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>我方血量最少的两个单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌方最近的两个活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌方最近的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌方最远的两个单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敌方最远的两个活着的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>~备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,54 +262,161 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,30 +425,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -380,9 +657,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -409,17 +928,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -677,19 +1240,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
@@ -698,82 +1261,82 @@
     <col min="6" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>46</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -797,12 +1360,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -820,12 +1383,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -846,12 +1409,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>20</v>
@@ -869,12 +1432,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>20</v>
@@ -895,12 +1458,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>20</v>
@@ -918,12 +1481,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>20</v>
@@ -944,12 +1507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -970,12 +1533,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -993,12 +1556,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1016,12 +1579,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1039,12 +1602,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1062,12 +1625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1088,12 +1651,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1117,12 +1680,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1143,12 +1706,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1166,12 +1729,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1195,12 +1758,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1221,12 +1784,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1244,12 +1807,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1270,12 +1833,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1293,12 +1856,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1322,12 +1885,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1348,12 +1911,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -1374,12 +1937,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -1400,12 +1963,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -1423,12 +1986,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -1449,12 +2012,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
@@ -1472,12 +2035,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1498,12 +2061,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -1524,12 +2087,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -1547,12 +2110,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -1573,12 +2136,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
@@ -1602,12 +2165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -1629,9 +2192,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/xlsx/target_select.xlsx
+++ b/config/xlsx/target_select.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="12220"/>
+    <workbookView windowWidth="25460" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>id</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>敌方最远的两个活着的单位</t>
+  </si>
+  <si>
+    <t>随机三个活着的单位</t>
   </si>
 </sst>
 </file>
@@ -246,9 +249,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -273,14 +276,113 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,85 +396,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,38 +418,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,7 +452,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,49 +500,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,72 +608,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -588,48 +615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,8 +646,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,23 +709,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,168 +740,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,10 +1231,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
@@ -2191,6 +2178,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4</v>
+      </c>
+      <c r="G37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/xlsx/target_select.xlsx
+++ b/config/xlsx/target_select.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9440"/>
+    <workbookView windowWidth="25460" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>id</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>随机三个活着的单位</t>
+  </si>
+  <si>
+    <t>我放活着的血量最少的单位</t>
   </si>
 </sst>
 </file>
@@ -249,9 +252,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -290,37 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -329,68 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,7 +325,98 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,139 +455,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,24 +618,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,51 +651,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +688,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -740,93 +728,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,34 +841,34 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,19 +877,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1231,12 +1234,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
@@ -2201,6 +2204,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
